--- a/medicine/Sexualité et sexologie/Thirty_Years_of_Adonis/Thirty_Years_of_Adonis.xlsx
+++ b/medicine/Sexualité et sexologie/Thirty_Years_of_Adonis/Thirty_Years_of_Adonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thirty Years of Adonis (三十儿立, San shi er li) est un film hongkongais réalisé par Scud, sorti en 2017.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yang Ke, acteur à succès de l'opéra de Pékin, perd son emploi à la suite des déboires économiques de sa compagnie et devient travailleur du sexe. Son activité l'entraine dans les bas-fonds et le contraint à des pratiques de plus en plus extrêmes, jusqu'à son meurtre.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Thirty Years of Adonis
 Titre original : 三十儿立 (San shi er li)
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adonis He : Yang Ke
 Siu Yam-yam : sœur Yin
@@ -625,9 +643,11 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le réalisateur, le film est une réflexion sur la vie d'un point de vue bouddhiste[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le réalisateur, le film est une réflexion sur la vie d'un point de vue bouddhiste,.
 L'assassin d'Adonis apparaît dans le film Apostles du même réalisateur et est troublé de croiser un personnage ressemblant trait pour trait à sa victime (personnage à nouveau joué par Adonis He).
 </t>
         </is>
